--- a/documentação/burn down/Sprint Brundown (04-11).xlsx
+++ b/documentação/burn down/Sprint Brundown (04-11).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="5" r:id="rId1"/>

--- a/documentação/burn down/Sprint Brundown (04-11).xlsx
+++ b/documentação/burn down/Sprint Brundown (04-11).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="17329"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="5" r:id="rId1"/>
@@ -647,104 +647,6 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>PREVISTOS</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="002060"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Plan1!$F$19:$F$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Plan1!$F$20:$F$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>SEXTA</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>SABADO</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>DOMINGO</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>SEGUNDA</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>TERÇA</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>QUARTA</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>QUINTA</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Plan1!$G$19:$G$34</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Plan1!$G$20:$G$26</c:f>
-              <c:numCache>
-                <c:formatCode>#,##0</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CD99-4697-BBA4-061CF90C0F0C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
@@ -850,9 +752,124 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="603625984"/>
         <c:axId val="593203712"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>PREVISTOS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="002060"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Plan1!$F$19:$F$34</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Plan1!$F$20:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>SEXTA</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SABADO</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>DOMINGO</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>SEGUNDA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>TERÇA</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>QUARTA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>QUINTA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>Plan1!$G$19:$G$34</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>Plan1!$G$20:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD99-4697-BBA4-061CF90C0F0C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="385270624"/>
+        <c:axId val="385269312"/>
       </c:lineChart>
       <c:catAx>
         <c:axId val="603625984"/>
@@ -961,6 +978,65 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:valAx>
+        <c:axId val="385269312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="385270624"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="385270624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="385269312"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:spPr>
         <a:noFill/>
         <a:ln>
@@ -1887,8 +1963,8 @@
   </sheetPr>
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
